--- a/ExcelExamples/ExcelFile/Sample.xlsx
+++ b/ExcelExamples/ExcelFile/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d9b4118f3ce405d/jorgeprg/csharp/examples/ExcelExamples/ExcelExamples/ExcelExamples/ExcelFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\jorgeprg\csharp\examples\ExcelExamples\ExcelExamples\ExcelExamples\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3223B383-56F0-4FBC-A7ED-6A1FCD29868A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6748289B-2C05-4F3A-9DCA-D7FE5F9AB6D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{46DF4F75-D937-4317-949C-ECBCCC87B229}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>FirstName</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Adrian</t>
+  </si>
+  <si>
+    <t>Andre</t>
   </si>
 </sst>
 </file>
@@ -58,12 +61,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C22B18-D7D1-463E-BF12-C0C8C3EEA58C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,8 +453,19 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
